--- a/Fil Rouge Alan/Dictionnaire de données Fil Rouge.xlsx
+++ b/Fil Rouge Alan/Dictionnaire de données Fil Rouge.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>Dictionnaire de données</t>
   </si>
@@ -48,9 +48,6 @@
     <t>libelleCourtProduit</t>
   </si>
   <si>
-    <t>libelleLongProduit</t>
-  </si>
-  <si>
     <t>referenceFournisseur</t>
   </si>
   <si>
@@ -292,6 +289,39 @@
   </si>
   <si>
     <t xml:space="preserve">quantite de produit disponible </t>
+  </si>
+  <si>
+    <t>Entitées</t>
+  </si>
+  <si>
+    <t>Attributs</t>
+  </si>
+  <si>
+    <t>Code Attributs</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types </t>
+  </si>
+  <si>
+    <t>identifiant</t>
+  </si>
+  <si>
+    <t>libelle court</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DescriptionProduit</t>
+  </si>
+  <si>
+    <t>prix d'achat</t>
+  </si>
+  <si>
+    <t>reference fournisseur</t>
   </si>
 </sst>
 </file>
@@ -381,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -407,17 +437,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -447,6 +609,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,445 +960,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.28515625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="C10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="C11" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="B33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="C42" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
